--- a/veriler/ham-veriler.xlsx
+++ b/veriler/ham-veriler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="157">
   <si>
     <t>Zaman damgası</t>
   </si>
@@ -477,6 +477,12 @@
   <si>
     <t>İMMİB ERKAN AVCI MTAL</t>
   </si>
+  <si>
+    <t xml:space="preserve">Hacettepe </t>
+  </si>
+  <si>
+    <t>Bbb</t>
+  </si>
 </sst>
 </file>
 
@@ -844,7 +850,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z188" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z194" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="26">
     <tableColumn name="Zaman damgası" id="1"/>
     <tableColumn name="Yaşınız" id="2"/>
@@ -15832,80 +15838,551 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="31">
+      <c r="A188" s="25">
         <v>45687.44241478009</v>
       </c>
-      <c r="B188" s="32">
+      <c r="B188" s="26">
         <v>23.0</v>
       </c>
-      <c r="C188" s="32" t="s">
+      <c r="C188" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D188" s="32" t="s">
+      <c r="D188" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="G188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="H188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="I188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="K188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="L188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="M188" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="N188" s="32" t="s">
+      <c r="F188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M188" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N188" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O188" s="32" t="s">
+      <c r="O188" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="P188" s="32" t="s">
+      <c r="P188" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q188" s="33" t="s">
+      <c r="Q188" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R188" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="S188" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="T188" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="U188" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="V188" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="W188" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="X188" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y188" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z188" s="34" t="s">
-        <v>32</v>
+      <c r="R188" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S188" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T188" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U188" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V188" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W188" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X188" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y188" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z188" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="21">
+        <v>45687.625409224536</v>
+      </c>
+      <c r="B189" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F189" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G189" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J189" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K189" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L189" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M189" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N189" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O189" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P189" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q189" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R189" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S189" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T189" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U189" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V189" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="W189" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X189" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y189" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z189" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="25">
+        <v>45687.689392141205</v>
+      </c>
+      <c r="B190" s="26">
+        <v>32.0</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G190" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H190" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J190" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K190" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L190" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M190" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N190" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O190" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P190" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q190" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R190" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="S190" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T190" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U190" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V190" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W190" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X190" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y190" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z190" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="21">
+        <v>45687.703182881945</v>
+      </c>
+      <c r="B191" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F191" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G191" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K191" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N191" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O191" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P191" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q191" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X191" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z191" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="25">
+        <v>45687.71982738426</v>
+      </c>
+      <c r="B192" s="26">
+        <v>25.0</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G192" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J192" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K192" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L192" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M192" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N192" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O192" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P192" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q192" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R192" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S192" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T192" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U192" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V192" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="W192" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X192" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y192" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z192" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="21">
+        <v>45687.72334655093</v>
+      </c>
+      <c r="B193" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F193" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H193" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I193" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J193" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K193" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L193" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M193" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N193" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O193" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P193" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q193" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R193" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S193" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T193" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U193" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V193" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W193" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X193" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y193" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z193" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="31">
+        <v>45687.8655875</v>
+      </c>
+      <c r="B194" s="32">
+        <v>24.0</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H194" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I194" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="J194" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="K194" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L194" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M194" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="N194" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O194" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P194" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q194" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R194" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="S194" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T194" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U194" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V194" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="W194" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="X194" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y194" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z194" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/veriler/ham-veriler.xlsx
+++ b/veriler/ham-veriler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="164">
   <si>
     <t>Zaman damgası</t>
   </si>
@@ -483,6 +483,27 @@
   <si>
     <t>Bbb</t>
   </si>
+  <si>
+    <t xml:space="preserve">Pamukkale Üniversitesi </t>
+  </si>
+  <si>
+    <t>Erzincan Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atatürk Üniversitesi </t>
+  </si>
+  <si>
+    <t>Necmettin Erbakan Üniversitesi</t>
+  </si>
+  <si>
+    <t>Aksaray üniversitesi</t>
+  </si>
+  <si>
+    <t>Cumhuriyet üniversitesi</t>
+  </si>
+  <si>
+    <t>Muzaffer Sarısözen Ortaokulu</t>
+  </si>
 </sst>
 </file>
 
@@ -850,7 +871,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z194" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z202" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="26">
     <tableColumn name="Zaman damgası" id="1"/>
     <tableColumn name="Yaşınız" id="2"/>
@@ -16309,80 +16330,717 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="31">
+      <c r="A194" s="25">
         <v>45687.8655875</v>
       </c>
-      <c r="B194" s="32">
+      <c r="B194" s="26">
         <v>24.0</v>
       </c>
-      <c r="C194" s="32" t="s">
+      <c r="C194" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D194" s="32" t="s">
+      <c r="D194" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G194" s="32" t="s">
+      <c r="F194" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H194" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I194" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J194" s="32">
+      <c r="H194" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I194" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J194" s="26">
         <v>1.0</v>
       </c>
-      <c r="K194" s="32" t="s">
+      <c r="K194" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L194" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="M194" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="N194" s="32" t="s">
+      <c r="L194" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M194" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N194" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O194" s="32" t="s">
+      <c r="O194" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P194" s="32" t="s">
+      <c r="P194" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q194" s="33" t="s">
+      <c r="Q194" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R194" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="S194" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="T194" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="U194" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="V194" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="W194" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="X194" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y194" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z194" s="34" t="s">
-        <v>29</v>
+      <c r="R194" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S194" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T194" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U194" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V194" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="W194" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X194" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y194" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z194" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="21">
+        <v>45687.91732826389</v>
+      </c>
+      <c r="B195" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F195" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G195" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I195" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J195" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K195" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L195" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M195" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N195" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O195" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P195" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q195" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R195" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S195" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T195" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U195" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V195" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W195" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X195" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y195" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z195" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="25">
+        <v>45688.398676481476</v>
+      </c>
+      <c r="B196" s="26">
+        <v>51.0</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F196" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G196" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H196" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I196" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J196" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K196" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L196" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M196" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N196" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O196" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P196" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q196" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R196" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="S196" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T196" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U196" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V196" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="W196" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X196" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y196" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z196" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="21">
+        <v>45688.42529513889</v>
+      </c>
+      <c r="B197" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F197" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G197" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I197" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J197" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K197" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L197" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M197" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N197" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O197" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P197" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q197" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R197" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S197" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T197" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U197" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V197" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W197" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X197" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y197" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z197" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="25">
+        <v>45688.473595069445</v>
+      </c>
+      <c r="B198" s="26">
+        <v>27.0</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F198" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="G198" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H198" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I198" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J198" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K198" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L198" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M198" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N198" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O198" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P198" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q198" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R198" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S198" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T198" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U198" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V198" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W198" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X198" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y198" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z198" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="21">
+        <v>45688.53511459491</v>
+      </c>
+      <c r="B199" s="22">
+        <v>29.0</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E199" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F199" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G199" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H199" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I199" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J199" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K199" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L199" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M199" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N199" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O199" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P199" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q199" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R199" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S199" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T199" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U199" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V199" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W199" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X199" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y199" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z199" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="25">
+        <v>45688.74489105324</v>
+      </c>
+      <c r="B200" s="26">
+        <v>27.0</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E200" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F200" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G200" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H200" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I200" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J200" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K200" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L200" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M200" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N200" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O200" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P200" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q200" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R200" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S200" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T200" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U200" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V200" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W200" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X200" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y200" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z200" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="21">
+        <v>45688.98104626157</v>
+      </c>
+      <c r="B201" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F201" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G201" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H201" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I201" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J201" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K201" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M201" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N201" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O201" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P201" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q201" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R201" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="T201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V201" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="W201" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X201" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y201" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z201" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="31">
+        <v>45688.98654641204</v>
+      </c>
+      <c r="B202" s="32">
+        <v>11.0</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D202" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E202" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G202" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H202" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J202" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K202" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L202" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M202" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N202" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O202" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P202" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q202" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="R202" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S202" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T202" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="U202" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V202" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="W202" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="X202" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y202" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z202" s="34" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/veriler/ham-veriler.xlsx
+++ b/veriler/ham-veriler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="167">
   <si>
     <t>Zaman damgası</t>
   </si>
@@ -504,6 +504,15 @@
   <si>
     <t>Muzaffer Sarısözen Ortaokulu</t>
   </si>
+  <si>
+    <t>Gop</t>
+  </si>
+  <si>
+    <t>Sakarya Üniversitesi</t>
+  </si>
+  <si>
+    <t>Zbeü</t>
+  </si>
 </sst>
 </file>
 
@@ -666,10 +675,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -677,13 +686,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -691,13 +700,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -871,7 +880,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z202" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z219" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="26">
     <tableColumn name="Zaman damgası" id="1"/>
     <tableColumn name="Yaşınız" id="2"/>
@@ -16964,83 +16973,1404 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="31">
+      <c r="A202" s="25">
         <v>45688.98654641204</v>
       </c>
-      <c r="B202" s="32">
+      <c r="B202" s="26">
         <v>11.0</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="C202" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D202" s="32" t="s">
+      <c r="D202" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E202" s="32" t="s">
+      <c r="E202" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F202" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G202" s="32" t="s">
+      <c r="F202" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G202" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H202" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I202" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J202" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K202" s="32" t="s">
+      <c r="H202" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J202" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K202" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L202" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M202" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="N202" s="32" t="s">
+      <c r="L202" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M202" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N202" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O202" s="32" t="s">
+      <c r="O202" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="P202" s="32" t="s">
+      <c r="P202" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q202" s="33" t="s">
+      <c r="Q202" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R202" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S202" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T202" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="U202" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="V202" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="W202" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="X202" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y202" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z202" s="34" t="s">
-        <v>44</v>
+      <c r="R202" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S202" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T202" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="U202" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V202" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W202" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X202" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y202" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z202" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="21">
+        <v>45689.020796979166</v>
+      </c>
+      <c r="B203" s="22">
+        <v>21.0</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F203" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G203" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H203" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I203" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J203" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K203" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L203" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M203" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N203" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O203" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P203" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q203" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R203" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S203" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T203" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U203" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V203" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W203" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X203" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y203" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z203" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="25">
+        <v>45689.022689722224</v>
+      </c>
+      <c r="B204" s="26">
+        <v>34.0</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F204" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G204" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H204" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I204" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J204" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K204" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L204" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M204" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N204" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O204" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P204" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q204" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R204" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S204" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T204" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U204" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V204" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W204" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X204" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y204" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z204" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="21">
+        <v>45689.36452427083</v>
+      </c>
+      <c r="B205" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H205" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I205" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J205" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K205" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L205" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M205" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N205" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O205" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P205" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q205" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R205" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S205" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T205" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U205" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V205" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W205" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X205" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y205" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z205" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="25">
+        <v>45689.61142777778</v>
+      </c>
+      <c r="B206" s="26">
+        <v>26.0</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D206" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F206" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G206" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I206" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J206" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="K206" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L206" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M206" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N206" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O206" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P206" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q206" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R206" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S206" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T206" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U206" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V206" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W206" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X206" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y206" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z206" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="21">
+        <v>45689.6477084375</v>
+      </c>
+      <c r="B207" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E207" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N207" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O207" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P207" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q207" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R207" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="T207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="U207" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V207" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="X207" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="Y207" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z207" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="25">
+        <v>45689.917633414356</v>
+      </c>
+      <c r="B208" s="26">
+        <v>32.0</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G208" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H208" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J208" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K208" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M208" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O208" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P208" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q208" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="R208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W208" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X208" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y208" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z208" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="21">
+        <v>45691.63689692129</v>
+      </c>
+      <c r="B209" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F209" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J209" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K209" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N209" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O209" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P209" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q209" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X209" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y209" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z209" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="25">
+        <v>45693.43324820602</v>
+      </c>
+      <c r="B210" s="26">
+        <v>28.0</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J210" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="K210" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L210" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O210" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P210" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q210" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R210" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S210" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T210" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U210" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="W210" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X210" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y210" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="Z210" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="21">
+        <v>45693.46103142361</v>
+      </c>
+      <c r="B211" s="22">
+        <v>28.0</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F211" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H211" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I211" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J211" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K211" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L211" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N211" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O211" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P211" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q211" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R211" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S211" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T211" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U211" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y211" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z211" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="25">
+        <v>45693.54734077546</v>
+      </c>
+      <c r="B212" s="26">
+        <v>35.0</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G212" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K212" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O212" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P212" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q212" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R212" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="T212" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="U212" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V212" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W212" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X212" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y212" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z212" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="21">
+        <v>45693.56481869213</v>
+      </c>
+      <c r="B213" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M213" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N213" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O213" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P213" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q213" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R213" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W213" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y213" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z213" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="25">
+        <v>45693.635938761574</v>
+      </c>
+      <c r="B214" s="26">
+        <v>22.0</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F214" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G214" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H214" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I214" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J214" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K214" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L214" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M214" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N214" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O214" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P214" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q214" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="R214" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S214" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T214" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X214" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y214" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z214" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="21">
+        <v>45693.88991293982</v>
+      </c>
+      <c r="B215" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F215" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G215" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I215" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K215" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L215" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N215" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O215" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P215" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q215" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T215" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W215" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y215" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z215" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="25">
+        <v>45693.91404847222</v>
+      </c>
+      <c r="B216" s="26">
+        <v>24.0</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M216" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O216" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P216" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q216" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T216" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y216" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z216" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="21">
+        <v>45693.922052256945</v>
+      </c>
+      <c r="B217" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J217" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K217" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N217" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O217" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P217" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q217" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S217" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T217" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U217" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V217" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W217" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X217" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y217" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z217" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="25">
+        <v>45693.96250292824</v>
+      </c>
+      <c r="B218" s="26">
+        <v>33.0</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G218" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I218" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N218" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O218" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P218" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q218" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R218" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S218" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V218" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="W218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X218" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y218" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z218" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="31">
+        <v>45693.968750706015</v>
+      </c>
+      <c r="B219" s="32">
+        <v>26.0</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D219" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F219" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="G219" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="J219" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="K219" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L219" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="N219" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O219" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P219" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q219" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="S219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V219" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="W219" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="X219" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y219" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z219" s="34" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/veriler/ham-veriler.xlsx
+++ b/veriler/ham-veriler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="176">
   <si>
     <t>Zaman damgası</t>
   </si>
@@ -513,6 +513,33 @@
   <si>
     <t>Zbeü</t>
   </si>
+  <si>
+    <t xml:space="preserve">Adıyaman üniversitesi </t>
+  </si>
+  <si>
+    <t>Şeyh edebali</t>
+  </si>
+  <si>
+    <t>Yunus Emre</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İstanbul Gelişim üniversitesi </t>
+  </si>
+  <si>
+    <t>MCBÜ</t>
+  </si>
+  <si>
+    <t>Ahbv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fırat üniversitesi </t>
+  </si>
+  <si>
+    <t>Dokuz eylül üniversitesi</t>
+  </si>
 </sst>
 </file>
 
@@ -675,10 +702,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -686,13 +713,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -700,13 +727,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -880,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z219" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z246" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="26">
     <tableColumn name="Zaman damgası" id="1"/>
     <tableColumn name="Yaşınız" id="2"/>
@@ -18297,80 +18324,2189 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="31">
+      <c r="A219" s="21">
         <v>45693.968750706015</v>
       </c>
-      <c r="B219" s="32">
+      <c r="B219" s="22">
         <v>26.0</v>
       </c>
-      <c r="C219" s="32" t="s">
+      <c r="C219" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D219" s="32" t="s">
+      <c r="D219" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F219" s="32">
+      <c r="F219" s="22">
         <v>1.0</v>
       </c>
-      <c r="G219" s="32" t="s">
+      <c r="G219" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H219" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J219" s="32">
+      <c r="H219" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J219" s="22">
         <v>1.0</v>
       </c>
-      <c r="K219" s="32" t="s">
+      <c r="K219" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L219" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="N219" s="32" t="s">
+      <c r="L219" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N219" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O219" s="32" t="s">
+      <c r="O219" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P219" s="32" t="s">
+      <c r="P219" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q219" s="33" t="s">
+      <c r="Q219" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="S219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="T219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="U219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="V219" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="W219" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="X219" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y219" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z219" s="34" t="s">
-        <v>37</v>
+      <c r="R219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="T219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V219" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="W219" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X219" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y219" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z219" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="25">
+        <v>45694.58350121528</v>
+      </c>
+      <c r="B220" s="26">
+        <v>39.0</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F220" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="G220" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H220" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J220" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="K220" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L220" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M220" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N220" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O220" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P220" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q220" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R220" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S220" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W220" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X220" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y220" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z220" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="21">
+        <v>45694.62794259259</v>
+      </c>
+      <c r="B221" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F221" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G221" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J221" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K221" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N221" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O221" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P221" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q221" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y221" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z221" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="25">
+        <v>45694.70143184028</v>
+      </c>
+      <c r="B222" s="26">
+        <v>28.0</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G222" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K222" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N222" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O222" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P222" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q222" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="R222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y222" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z222" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="21">
+        <v>45695.87235278935</v>
+      </c>
+      <c r="B223" s="22">
+        <v>37.0</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F223" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G223" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I223" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J223" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K223" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M223" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N223" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O223" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P223" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q223" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S223" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T223" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U223" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W223" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X223" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y223" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z223" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="25">
+        <v>45695.94663869213</v>
+      </c>
+      <c r="B224" s="26">
+        <v>31.0</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E224" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G224" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H224" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I224" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J224" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K224" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L224" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M224" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N224" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O224" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P224" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q224" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R224" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S224" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T224" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U224" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V224" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W224" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X224" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y224" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z224" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="21">
+        <v>45695.96558394676</v>
+      </c>
+      <c r="B225" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F225" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G225" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I225" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J225" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K225" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L225" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M225" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N225" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O225" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P225" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q225" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R225" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S225" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T225" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V225" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y225" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z225" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="25">
+        <v>45696.874519108795</v>
+      </c>
+      <c r="B226" s="26">
+        <v>26.0</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F226" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="G226" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H226" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I226" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J226" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K226" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L226" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M226" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N226" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O226" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P226" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q226" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R226" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S226" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T226" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U226" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V226" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W226" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X226" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y226" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z226" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="21">
+        <v>45696.96734449074</v>
+      </c>
+      <c r="B227" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D227" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E227" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F227" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G227" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I227" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J227" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K227" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N227" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O227" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P227" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q227" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R227" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S227" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T227" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U227" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V227" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W227" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X227" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y227" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z227" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="25">
+        <v>45696.97740188657</v>
+      </c>
+      <c r="B228" s="26">
+        <v>24.0</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G228" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H228" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I228" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J228" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="K228" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N228" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O228" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P228" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q228" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R228" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T228" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U228" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V228" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W228" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="X228" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y228" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z228" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="21">
+        <v>45696.998780995375</v>
+      </c>
+      <c r="B229" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G229" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H229" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I229" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K229" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L229" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M229" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N229" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O229" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P229" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q229" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T229" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U229" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V229" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W229" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y229" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z229" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="25">
+        <v>45697.02598615741</v>
+      </c>
+      <c r="B230" s="26">
+        <v>27.0</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D230" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K230" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N230" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O230" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P230" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q230" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W230" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y230" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z230" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="21">
+        <v>45697.40406560185</v>
+      </c>
+      <c r="B231" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F231" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G231" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J231" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K231" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L231" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N231" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O231" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P231" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q231" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V231" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W231" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X231" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y231" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z231" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="25">
+        <v>45697.44140989584</v>
+      </c>
+      <c r="B232" s="26">
+        <v>28.0</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D232" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N232" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O232" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P232" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q232" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="R232" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="S232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y232" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z232" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="21">
+        <v>45697.49040565972</v>
+      </c>
+      <c r="B233" s="22">
+        <v>28.0</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J233" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K233" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M233" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N233" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O233" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P233" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q233" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R233" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S233" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T233" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U233" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y233" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z233" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="25">
+        <v>45697.56344165509</v>
+      </c>
+      <c r="B234" s="26">
+        <v>22.0</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D234" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F234" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G234" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H234" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I234" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J234" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="K234" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L234" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M234" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N234" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O234" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P234" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q234" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R234" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W234" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X234" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y234" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z234" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="21">
+        <v>45697.615646631944</v>
+      </c>
+      <c r="B235" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J235" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K235" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L235" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N235" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O235" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P235" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q235" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S235" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T235" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U235" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V235" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W235" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X235" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y235" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="Z235" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="25">
+        <v>45697.65097674768</v>
+      </c>
+      <c r="B236" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="C236" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D236" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F236" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G236" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H236" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I236" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J236" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K236" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L236" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M236" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N236" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O236" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P236" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q236" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R236" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S236" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T236" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U236" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V236" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W236" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X236" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y236" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z236" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="21">
+        <v>45697.70038993056</v>
+      </c>
+      <c r="B237" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="C237" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D237" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F237" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H237" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I237" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J237" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K237" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L237" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M237" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N237" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O237" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P237" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q237" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R237" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S237" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="T237" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U237" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V237" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W237" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X237" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y237" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z237" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="25">
+        <v>45697.78514415509</v>
+      </c>
+      <c r="B238" s="26">
+        <v>28.0</v>
+      </c>
+      <c r="C238" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D238" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F238" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G238" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H238" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I238" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J238" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K238" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L238" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M238" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N238" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O238" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P238" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q238" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R238" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S238" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T238" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U238" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V238" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W238" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X238" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y238" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z238" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="21">
+        <v>45697.85058837963</v>
+      </c>
+      <c r="B239" s="22">
+        <v>27.0</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D239" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F239" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G239" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H239" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I239" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J239" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K239" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L239" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M239" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N239" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O239" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P239" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q239" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R239" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S239" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T239" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U239" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V239" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W239" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X239" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y239" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z239" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="25">
+        <v>45698.57498094907</v>
+      </c>
+      <c r="B240" s="26">
+        <v>26.0</v>
+      </c>
+      <c r="C240" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D240" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F240" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G240" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H240" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I240" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J240" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="K240" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L240" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M240" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N240" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O240" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P240" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q240" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R240" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S240" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T240" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U240" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V240" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W240" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X240" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y240" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z240" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="21">
+        <v>45698.57865627315</v>
+      </c>
+      <c r="B241" s="22">
+        <v>28.0</v>
+      </c>
+      <c r="C241" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D241" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H241" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K241" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M241" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N241" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O241" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P241" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q241" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R241" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="S241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T241" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U241" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V241" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y241" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z241" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="25">
+        <v>45698.58698813657</v>
+      </c>
+      <c r="B242" s="26">
+        <v>21.0</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D242" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E242" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F242" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="G242" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H242" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I242" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J242" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="K242" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L242" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M242" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N242" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O242" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P242" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q242" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y242" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z242" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="21">
+        <v>45698.643917905094</v>
+      </c>
+      <c r="B243" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D243" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G243" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H243" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I243" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J243" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K243" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L243" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M243" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N243" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O243" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P243" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q243" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R243" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S243" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T243" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U243" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V243" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W243" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X243" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y243" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z243" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="25">
+        <v>45698.82677326389</v>
+      </c>
+      <c r="B244" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D244" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="G244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="H244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="I244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="J244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="M244" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="N244" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O244" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="P244" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q244" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R244" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S244" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T244" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U244" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V244" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W244" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X244" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y244" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z244" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="21">
+        <v>45698.962537326384</v>
+      </c>
+      <c r="B245" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D245" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E245" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F245" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="G245" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H245" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I245" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J245" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K245" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L245" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M245" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N245" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O245" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P245" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q245" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R245" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S245" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T245" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U245" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V245" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W245" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="X245" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y245" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z245" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="31">
+        <v>45699.06709039352</v>
+      </c>
+      <c r="B246" s="32">
+        <v>42.0</v>
+      </c>
+      <c r="C246" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F246" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H246" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I246" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J246" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K246" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L246" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M246" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N246" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O246" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P246" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q246" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R246" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="S246" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="T246" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U246" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V246" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="W246" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="X246" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y246" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z246" s="34" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
